--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F399A-56E6-4D47-B2A3-B84BFC37AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC37BC3-676B-4326-921A-6B3C9124E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1305" windowWidth="14670" windowHeight="10050" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,16 +73,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广告ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;a href="https://www.kqzyfj.com/click-100678628-12193129" target="_top"&gt;
-&lt;img src="https://www.tqlkg.com/image-100678628-12193129" width="468" height="60" alt="Kinguin.net - Save on Every Game!" border="0"/&gt;&lt;/a&gt;</t>
+    <t>https://kinguin.deals/3SxgWxv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-14356449" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-14356449" width="160" height="600" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160x600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-12193129" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-12193129" width="468" height="60" alt="Kinguin.net - Save on Every Game!" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-12193130" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-12193130" width="728" height="90" alt="Kinguin.net - Save on Every Game!" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>728x90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-12193131" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-12193131" width="336" height="280" alt="Kinguin.net - Save on Every Game!" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336x280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12193131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-14356412" target="_blank"&gt;Shop smart at the original gaming marketplace!&lt;/a&gt; Kinguin connects players with trusted sellers and offers the best prices on games.&lt;img src="https://www.awltovhc.com/image-100678624-14356412" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14356412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-12193128" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-12193128" width="300" height="250" alt="Kinguin.net - Save on Every Game!" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12193128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300x250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-14356448" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-14356448" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14356448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kinguin.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14356449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12193130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-15042042" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-15042042" width="336" height="280" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15042042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（矩形大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（垂直大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（矩形中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（横幅大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（横幅中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15010209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://deal.kinguin.net/c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-15010209" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-15010209" width="336" height="280" alt="Kinguin Best Deals" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +244,37 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,21 +294,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,6 +343,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1402773</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1168979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F15C4E-25C7-0937-64C2-E47EFD144E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364682" y="10685319"/>
+          <a:ext cx="1402773" cy="1168978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1107176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287B361B-EBB0-445D-93BE-2A251C32CED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364683" y="5663045"/>
+          <a:ext cx="1333500" cy="1107176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4457143</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>571429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196195F8-0B20-DC23-DFB6-25302AC7AC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364682" y="11759045"/>
+          <a:ext cx="4457143" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444296</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1662546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3963D1C-548F-B69B-9CA8-491925214F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364682" y="311727"/>
+          <a:ext cx="444296" cy="1662546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4493559</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>555524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AB6D20-EBEC-F154-92AE-2A3BACE61FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364682" y="12971319"/>
+          <a:ext cx="4493559" cy="555523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1489365</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1241136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BC1FAF-EB3A-E6E8-CDCE-1F5F8E4C625C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364683" y="6823364"/>
+          <a:ext cx="1489364" cy="1241136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1311089</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1092575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35C0F2C-ADF1-624C-8786-730F00F338F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364682" y="8208819"/>
+          <a:ext cx="1311089" cy="1092574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1467971</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1223309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D49C5F-7CF9-4E9B-A46B-E76C6DC0EE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8364682" y="9490364"/>
+          <a:ext cx="1467971" cy="1223309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,59 +999,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4B496-3414-426B-B049-8E7FDC7EA1C4}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="53.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>160</v>
+      </c>
+      <c r="G2" s="2">
+        <v>600</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K2" s="5">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>12193129</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>468</v>
+      </c>
+      <c r="G3" s="2">
+        <v>60</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>728</v>
+      </c>
+      <c r="G4" s="2">
+        <v>90</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>300</v>
+      </c>
+      <c r="G5" s="2">
+        <v>250</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>250</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="5">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2">
+        <v>336</v>
+      </c>
+      <c r="G7" s="2">
+        <v>280</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>44782</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="8" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>12193129</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>336</v>
+      </c>
+      <c r="G8" s="2">
+        <v>280</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <v>336</v>
+      </c>
+      <c r="G9" s="2">
+        <v>280</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="5">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44782</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{FCA4B496-3414-426B-B049-8E7FDC7EA1C4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
+    <sortCondition descending="1" ref="C1:C10"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{92F6CBD6-7CAD-4982-A13C-AD895699B795}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{B6E385CB-C55C-42D6-A52A-A9744F6135AA}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{3826E78F-18F7-475C-8B4D-8F2D85A7C184}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{289CA1A3-5E52-497B-A261-ADF8C5E675FB}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{B420819D-4B2C-46B8-B842-9451E1C4A87F}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{79176F4A-244C-4CE4-AF30-3A3F814DF7E5}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{1B06991C-6C08-4953-A4D5-BEE524D70809}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C6C225-65C9-4FE6-933E-51A29BE63F8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC37BC3-676B-4326-921A-6B3C9124E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25DB33-4BA6-4F70-9C6A-81DE8E6F8E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +224,120 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-13660621" target="_blank"&gt;即刻上线您的网站&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-13660621" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hostinger(5173193)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13660621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150x40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13568843</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-13568843" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-13568843" width="150" height="40" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-13608887" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-13608887" width="300" height="600" alt="Hostinger" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300x600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（垂直中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-13608891" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-13608891" width="468" height="60" alt="Hostinger" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>468x60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13608891</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（横幅中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-13608886" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-13608886" width="300" height="250" alt="Hostinger" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300x250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（矩形中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13608886</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-13608890" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-13608890" width="336" height="280" alt="Hostinger" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13608890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（矩形大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336x280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（横幅大）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13608893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>728x90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-13608893" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-13608893" width="728" height="90" alt="Hostinger" border="0"/&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +441,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,6 +810,275 @@
         <a:xfrm>
           <a:off x="8364682" y="9490364"/>
           <a:ext cx="1467971" cy="1223309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1428571</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>380952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE2158C-3792-CA5E-CFCA-F52AD75D1EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8438029" y="1367118"/>
+          <a:ext cx="1428571" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1120588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80729C98-BA91-4531-5AF9-E757FAD833CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8438030" y="2274795"/>
+          <a:ext cx="560294" cy="1120587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>812427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694475DD-53EE-2227-EDF8-1EB9F9574630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8438030" y="4347883"/>
+          <a:ext cx="974911" cy="812426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2622171</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>336177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B77F22-134A-81EF-9B3F-B731CDA89F7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8438029" y="3440207"/>
+          <a:ext cx="2622171" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1008531</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>840443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B24F03-F492-4DB1-C80B-B705531F86AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8438030" y="5255560"/>
+          <a:ext cx="1008530" cy="840442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2809943</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>347383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B5004F-DBBB-DB88-02FD-4AC2B869B34B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8438030" y="4347882"/>
+          <a:ext cx="2809942" cy="347383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,9 +1389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4B496-3414-426B-B049-8E7FDC7EA1C4}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
@@ -1363,12 +1751,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C6C225-65C9-4FE6-933E-51A29BE63F8E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.625" customWidth="1"/>
+    <col min="9" max="9" width="40.75" customWidth="1"/>
+    <col min="10" max="10" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2">
+        <v>150</v>
+      </c>
+      <c r="G3" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13608887</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>600</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2">
+        <v>468</v>
+      </c>
+      <c r="G5" s="2">
+        <v>60</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2">
+        <v>728</v>
+      </c>
+      <c r="G6" s="2">
+        <v>90</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>250</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2">
+        <v>336</v>
+      </c>
+      <c r="G8" s="2">
+        <v>280</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="I16" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{65C6C225-65C9-4FE6-933E-51A29BE63F8E}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.125" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5">
+        <v>44518</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC25DB33-4BA6-4F70-9C6A-81DE8E6F8E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016FCE2-1E49-4706-A9B7-D109D45DED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="4290" yWindow="990" windowWidth="14670" windowHeight="10050" firstSheet="1" activeTab="2" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId1"/>
     <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Acronis(1596784)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,119 @@
   <si>
     <t>&lt;a href="https://www.tkqlhce.com/click-100678624-13608893" target="_blank"&gt;
 &lt;img src="https://www.ftjcfx.com/image-100678624-13608893" width="728" height="90" alt="Hostinger" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acronis(1596784)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10594191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-10594191" target="_blank"&gt;Acronis Backup for Windows PCs&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-10594191" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acronis.com/en-us/business/backup/workstation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-15036530" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-15036530" width="160" height="600" alt="Acronis Cyber Protect Home Office" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acronis.com/lp/personal/sem/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15036530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-14491575" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-14491575" width="300" height="600" alt="Acronis Cyber Protect" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acronis.com/business/cyber-protect/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14491575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（垂直小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14321489</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-14321489" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-14321489" width="728" height="90" alt="Acronis Cyber Protect" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14491573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-14491573" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-14491573" width="300" height="250" alt="Acronis Cyber Protect" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-14321487" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-14321487" width="336" height="280" alt="Acronis Cyber Protect" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14321487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678628-15036542" target="_top"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678628-15036542" width="300" height="250" alt="Acronis Cyber Protect Home Office" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15036542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14491594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-14491594" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-14491594" width="336" height="280" alt="Acronis Cyber Protect" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14491569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120x600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-14491569" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-14491569" width="120" height="600" alt="Acronis Cyber Protect" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-14491582" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-14491582" width="728" height="90" alt="Acronis Cyber Protect" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14491582</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +558,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1079,6 +1195,407 @@
         <a:xfrm>
           <a:off x="8438030" y="4347882"/>
           <a:ext cx="2809942" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F629C2FC-D645-783F-A6DE-1CAC926F0720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="1152526"/>
+          <a:ext cx="285750" cy="1071563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1322294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F179628C-AF79-9FF3-8D24-48FCEB49B679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269941" y="2207559"/>
+          <a:ext cx="661147" cy="1322294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3535087</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>437031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B961DDC-7FCF-6513-E00C-BB14969DF99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269942" y="3675530"/>
+          <a:ext cx="3535086" cy="437030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1221441</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1017867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3038FB-A550-0D84-05DC-B36AED45B08F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269941" y="4728882"/>
+          <a:ext cx="1221441" cy="1017867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1288677</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1073899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2744A574-335E-0ABB-AF9F-BFF75A507DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269941" y="5782236"/>
+          <a:ext cx="1288677" cy="1073898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1232647</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1027206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F992E4-68F6-7570-AF3D-5BAAE4977E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269941" y="5782235"/>
+          <a:ext cx="1232647" cy="1027206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1288677</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1073899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7007C2-3E57-67B7-C128-04D27D683F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269941" y="8034619"/>
+          <a:ext cx="1288677" cy="1073898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1288675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DC83D3-8EB8-50AC-4D9B-D51EA659C9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8269941" y="1154206"/>
+          <a:ext cx="257735" cy="1288675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3524251</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>435691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D714D855-599D-A5A9-5F5D-0EAE88521C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8259537" y="5021037"/>
+          <a:ext cx="3524250" cy="435690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1753,7 +2270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C6C225-65C9-4FE6-933E-51A29BE63F8E}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2009,56 +2528,56 @@
         <v>44518</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
@@ -2075,18 +2594,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.75" customWidth="1"/>
     <col min="9" max="9" width="57.125" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2130,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -2151,15 +2673,361 @@
         <v>47</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K2" s="5">
-        <v>44518</v>
-      </c>
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2">
+        <v>600</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>160</v>
+      </c>
+      <c r="G4" s="2">
+        <v>600</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2">
+        <v>300</v>
+      </c>
+      <c r="G5" s="2">
+        <v>600</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>728</v>
+      </c>
+      <c r="G6" s="2">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>728</v>
+      </c>
+      <c r="G7" s="2">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>250</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>300</v>
+      </c>
+      <c r="G9" s="2">
+        <v>250</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
+        <v>336</v>
+      </c>
+      <c r="G10" s="2">
+        <v>280</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>336</v>
+      </c>
+      <c r="G11" s="2">
+        <v>280</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="5">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{DBBC4FFA-D9AB-43C0-8D86-F4CE48DBDA12}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{89A1DE5A-6BDE-48E4-9D19-4F12AF7CD83C}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{0C99FA05-BDD2-421E-A7A1-9B0572872410}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{D7AA9B1D-CB74-4326-B0AC-2B922DE923CC}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{41F43AC8-089D-47DD-BC92-8CDCB766E00E}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{A072EA16-1376-43AC-96FA-670872EE5F34}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{97578F6D-5EC8-45B0-B3D2-3B63228A370E}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{21AF6100-711F-4177-9318-F6EF0E319AAF}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{C588959F-0583-47C7-B88B-44FB4A106258}"/>
+    <hyperlink ref="J6" r:id="rId10" xr:uid="{24BC5F16-2427-4849-A669-35CB2DC495A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016FCE2-1E49-4706-A9B7-D109D45DED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AEC18-7D83-4FA2-9952-C723E893AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="990" windowWidth="14670" windowHeight="10050" firstSheet="1" activeTab="2" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="4095" yWindow="975" windowWidth="14670" windowHeight="10050" firstSheet="2" activeTab="3" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId1"/>
     <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId2"/>
     <sheet name="Acronis(1596784)" sheetId="3" r:id="rId3"/>
+    <sheet name="Banggood(4498040)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
   </definedNames>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +453,21 @@
   </si>
   <si>
     <t>14491582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banggood(4498040)</t>
+  </si>
+  <si>
+    <t>12637573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-12637573" target="_blank"&gt;Banggood Home Page&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-12637573" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.banggood.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2596,9 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2683,7 +2698,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
@@ -2714,7 +2731,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
@@ -2745,7 +2764,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
@@ -2776,7 +2797,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
@@ -2807,7 +2830,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
@@ -2838,7 +2863,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2869,7 +2896,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2900,7 +2929,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
@@ -2931,7 +2962,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
@@ -3014,6 +3047,7 @@
       <c r="K15" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{DBBC4FFA-D9AB-43C0-8D86-F4CE48DBDA12}"/>
@@ -3030,4 +3064,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D518C95-AB8A-4007-975A-665548231AB5}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.375" customWidth="1"/>
+    <col min="10" max="10" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{B16C46D2-D5D9-4952-A2D4-51A49F11D97C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AEC18-7D83-4FA2-9952-C723E893AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FFC9B-F709-4B99-B63A-EB2EE7373E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="975" windowWidth="14670" windowHeight="10050" firstSheet="2" activeTab="3" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="3" activeTab="4" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId1"/>
     <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId2"/>
     <sheet name="Acronis(1596784)" sheetId="3" r:id="rId3"/>
     <sheet name="Banggood(4498040)" sheetId="4" r:id="rId4"/>
+    <sheet name="iPage(2797026)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="138">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +469,166 @@
   </si>
   <si>
     <t>http://www.banggood.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPage(2797026)</t>
+  </si>
+  <si>
+    <t>12310352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-12310352" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-12310352" width="120" height="600" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12310349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-12248829" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-12248829" width="200" height="200" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（矩形小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12248829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12248819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-12248819" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-12248819" width="200" height="200" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-12248815" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-12248815" width="250" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250x250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12248815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12085996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-12085996" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-12085996" width="336" height="280" alt="iPage site builder banner" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11577048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-11577048" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-11577048" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-11471394" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-11471394" width="468" height="60" alt="468x60 Dedicated Server Banners" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11577046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11471390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-11471390" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-11471390" width="160" height="600" alt="160x600 Dedicated Server Banners" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11333949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-11333949" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-11333949" width="728" height="90" alt="iPage site builder banner" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11333932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-11333932" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-11333932" width="250" height="250" alt="iPage site builder banner" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11328536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-11328536" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-11328536" width="728" height="90" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ipage.com/join/index.bml?AffID=714887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11333927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-11333927" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-11333927" width="160" height="600" alt="iPage site builder banner" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-12310349" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-12310349" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10713147" target="_blank"&gt;Web Hosting by iPage - Affordable and E-Commerce Enabled&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-10713147" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10713147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10713140" target="_blank"&gt;iPage Web Hosting. Free Domain Registration, Free Setup, Free Support -- All risk free!&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-10713140" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10713140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-10712810" target="_blank"&gt;iPage Web Hosting only $1.99/mo!!&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-10712810" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10712810</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,6 +1774,583 @@
         <a:xfrm>
           <a:off x="8259537" y="5021037"/>
           <a:ext cx="3524250" cy="435690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1176617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DE30E3-35CD-C7C9-ACF7-E5A5B9594CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6846795" y="1367118"/>
+          <a:ext cx="235323" cy="1176617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1266265</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1055221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21DFC52-6A6C-9E15-7F8F-6BD8116C00F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877735" y="2711824"/>
+          <a:ext cx="1266265" cy="1055221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>993321</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>993321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8C37E2-267F-4874-4783-66E4685A9079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864929" y="3959679"/>
+          <a:ext cx="993321" cy="993321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>993321</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>993321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD7A6D3-586F-C3BB-9C06-B0648670DDA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864929" y="5007429"/>
+          <a:ext cx="993321" cy="993321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1006928</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1006928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1427604D-29B4-B4EF-6E39-64A3FA94C92A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864929" y="6055179"/>
+          <a:ext cx="1006928" cy="1006928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1115785</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>929821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FF9E39-EF87-DCF6-0188-20ADE9723777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864929" y="7102929"/>
+          <a:ext cx="1115785" cy="929821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1129393</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>941160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BDB69D-BF1A-677B-7FD3-35CC491CB052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864930" y="8150679"/>
+          <a:ext cx="1129392" cy="941160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4457143</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>571429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB74BD0-EFE0-0D45-A224-A62BA6FD8363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864929" y="9198429"/>
+          <a:ext cx="4457143" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4531179</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>560173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B73F42B-07AB-57C5-6D52-6D844860A9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864930" y="11865429"/>
+          <a:ext cx="4531178" cy="560173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1020535</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1020535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975EC9D5-F0F2-9059-0DFF-63F2CB47C8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864929" y="7102929"/>
+          <a:ext cx="1020535" cy="1020535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4572001</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>565221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9858B6-7928-4839-887F-0410B3190193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864930" y="14015358"/>
+          <a:ext cx="4572000" cy="565220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394606</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1479776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D978CDB-28B5-C5A2-94E1-9316A225C8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864928" y="2707821"/>
+          <a:ext cx="394607" cy="1479776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1479776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2600F04-0A51-4F13-AB43-9937DE92FB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7864929" y="3905250"/>
+          <a:ext cx="394607" cy="1479776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2994,7 +3732,7 @@
         <v>44623</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -3007,7 +3745,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -3020,7 +3758,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -3033,7 +3771,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -3070,8 +3808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D518C95-AB8A-4007-975A-665548231AB5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3225,4 +3963,613 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.375" customWidth="1"/>
+    <col min="9" max="9" width="46.625" customWidth="1"/>
+    <col min="10" max="10" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2">
+        <v>120</v>
+      </c>
+      <c r="G5" s="2">
+        <v>600</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>160</v>
+      </c>
+      <c r="G6" s="2">
+        <v>600</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>160</v>
+      </c>
+      <c r="G7" s="2">
+        <v>600</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="2">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="2">
+        <v>250</v>
+      </c>
+      <c r="G10" s="2">
+        <v>250</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="2">
+        <v>250</v>
+      </c>
+      <c r="G11" s="2">
+        <v>250</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2">
+        <v>300</v>
+      </c>
+      <c r="G12" s="2">
+        <v>250</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>250</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2">
+        <v>336</v>
+      </c>
+      <c r="G14" s="2">
+        <v>280</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>468</v>
+      </c>
+      <c r="G15" s="2">
+        <v>60</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>728</v>
+      </c>
+      <c r="G16" s="2">
+        <v>90</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>728</v>
+      </c>
+      <c r="G17" s="2">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{2BB5A1BE-85F0-4EBC-86EC-27C469441DAC}"/>
+    <hyperlink ref="J17" r:id="rId2" xr:uid="{7D248CE0-1BC1-4F26-8499-BDF20B21EE7D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027FFC9B-F709-4B99-B63A-EB2EE7373E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60186362-7099-48C0-85AA-BEB17B6C3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="3" activeTab="4" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="3915" yWindow="1095" windowWidth="14670" windowHeight="10050" firstSheet="4" activeTab="5" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,12 @@
     <sheet name="Acronis(1596784)" sheetId="3" r:id="rId3"/>
     <sheet name="Banggood(4498040)" sheetId="4" r:id="rId4"/>
     <sheet name="iPage(2797026)" sheetId="5" r:id="rId5"/>
+    <sheet name="Wondershare(3194603)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'iPage(2797026)'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="185">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +631,207 @@
   </si>
   <si>
     <t>10712810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wondershare(3194603)</t>
+  </si>
+  <si>
+    <t>15305299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-15305299" target="_blank"&gt;Wondershare DemoCreator 6.0&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-15305299" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://democreator.wondershare.com/</t>
+  </si>
+  <si>
+    <t>15305283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-15305283" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-15305283" width="728" height="90" alt="screen recorder,video editor" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://democreator.wondershare.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-15305282" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-15305282" width="300" height="250" alt="screen recorder,video editor" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15305279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-15305279" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-15305279" width="160" height="600" alt="screen recorder,video editor" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15301806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-15301806" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-15301806" width="728" height="90" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://anireel.wondershare.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15293188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-15293188" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-15293188" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://videoconverter.wondershare.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15295385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-15295385" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-15295385" width="728" height="90" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pdf.wondershare.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15295384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600x448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-15295384" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-15295384" width="600" height="448" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15295376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-15295376" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-15295376" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15295364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-15295364" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-15295364" width="160" height="600" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-11101523" target="_blank"&gt;Easily Create, Edit, Convert, Sign, OCR PDF files.Change the way you work with PDF.&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-11101523" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pdf.wondershare.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11208006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-11208006" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-11208006" width="300" height="250" alt="Wondershare MobileTrans" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mobiletrans.wondershare.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11812284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-11812284" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-11812284" width="300" height="250" alt="Convert PDF files into multiple popular document formats including Word, Excel, PowerPoint, and more" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.wondershare.com/pdf-converter/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13454618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-13454618" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-13454618" width="160" height="600" alt="better alternative to Adobe® Acrobat®." border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-13454653" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-13454653" width="728" height="90" alt="Best PDF Editor" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13454653</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13447373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-13447373" target="_blank"&gt;Remove PDF Password&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-13447373" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pdf.wondershare.com/pdf-password-remover/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13467294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-13467294" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-13467294" width="300" height="250" alt="Remove PDF Protection Effortlessly" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pdf.wondershare.com/pdf-password-remover-mac/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13467302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-13467302" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-13467302" width="728" height="90" alt="Remove PDF Password in a Second" border="0"/&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2351,6 +2554,671 @@
         <a:xfrm>
           <a:off x="7864929" y="3905250"/>
           <a:ext cx="394607" cy="1479776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4259037</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>526529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9317553-7FE0-482B-CED4-1E09CA3B8826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8899072" y="2136321"/>
+          <a:ext cx="4259036" cy="526529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1506681</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1255567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14894D99-9318-8312-B98A-93CD4151BE42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="7671955"/>
+          <a:ext cx="1506681" cy="1255567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1714500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2B9098-2155-30B1-BE69-3030397DEACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="3255818"/>
+          <a:ext cx="457200" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4294909</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>530965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3E2D3E-56AD-DEA7-B5A9-CA9AFE1CD41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="6736774"/>
+          <a:ext cx="4294909" cy="530964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1600201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C96AD11-561E-AA72-C47D-D48F06B3C635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918865" y="9265227"/>
+          <a:ext cx="1600200" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4346863</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>537387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F3E5F6-F13B-2EA8-B211-C2F57FE4F9BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="7793182"/>
+          <a:ext cx="4346863" cy="537387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1697181</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1267229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17D4225-AC71-68B8-B9C6-38F7890E8434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="11707091"/>
+          <a:ext cx="1697181" cy="1267229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1627909</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1356591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B95444-25FD-F48A-76E2-CBCAC5489885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="11707091"/>
+          <a:ext cx="1627909" cy="1356591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1753466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581C2BDB-6118-1F03-529F-8C980E71CADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="1783773"/>
+          <a:ext cx="467591" cy="1753466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1610591</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1342159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A2B9D7-2E7F-F4F4-E779-77D3711BDDA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="15517091"/>
+          <a:ext cx="1610591" cy="1342159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1731819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1443181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A4EC01-B2C0-915C-4B72-6986C328366D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918865" y="17179636"/>
+          <a:ext cx="1731818" cy="1443181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2078179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AC60B6-99E5-E577-7423-D08935A705AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="7533410"/>
+          <a:ext cx="554181" cy="2078178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4346863</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>537387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9162C26-F15E-A5FD-18EC-0DDCE09D6D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="13421591"/>
+          <a:ext cx="4346863" cy="537387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1766455</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1472045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710E3BCF-0966-1CBA-DFA8-FA6362CD0C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918865" y="23899091"/>
+          <a:ext cx="1766454" cy="1472045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4346863</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>537387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66D8C2B-B38C-A479-DA9A-F9AD6E0B7221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="16157864"/>
+          <a:ext cx="4346863" cy="537387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3969,8 +4837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4524,7 +5392,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -4537,7 +5405,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -4550,7 +5418,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -4564,6 +5432,7 @@
       <c r="K22" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{2BB5A1BE-85F0-4EBC-86EC-27C469441DAC}"/>
@@ -4572,4 +5441,779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F2C21-F21B-45D4-97F6-A3ECA9FB0E4A}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.125" customWidth="1"/>
+    <col min="9" max="9" width="39.25" customWidth="1"/>
+    <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="132" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>160</v>
+      </c>
+      <c r="G5" s="2">
+        <v>600</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>160</v>
+      </c>
+      <c r="G6" s="2">
+        <v>600</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>160</v>
+      </c>
+      <c r="G7" s="2">
+        <v>600</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>728</v>
+      </c>
+      <c r="G8" s="2">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>728</v>
+      </c>
+      <c r="G9" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>728</v>
+      </c>
+      <c r="G10" s="2">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="99" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
+        <v>728</v>
+      </c>
+      <c r="G11" s="2">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="99" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>728</v>
+      </c>
+      <c r="G12" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="3">
+        <v>15305282</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>250</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2">
+        <v>300</v>
+      </c>
+      <c r="G14" s="2">
+        <v>250</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>300</v>
+      </c>
+      <c r="G15" s="2">
+        <v>250</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2">
+        <v>300</v>
+      </c>
+      <c r="G16" s="2">
+        <v>250</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="132" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <v>300</v>
+      </c>
+      <c r="G17" s="2">
+        <v>250</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>300</v>
+      </c>
+      <c r="G18" s="2">
+        <v>250</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="2">
+        <v>600</v>
+      </c>
+      <c r="G19" s="2">
+        <v>448</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{7DA3FCC9-C081-44DF-9D78-7EA484700E35}"/>
+    <hyperlink ref="J13" r:id="rId2" xr:uid="{0C25957C-8CE5-44D5-9290-AF35FD509E06}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{69CBD378-2E34-44DD-A117-0AFF2A54FA9A}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{28BC7B2A-BAB0-4845-8BAA-95BEAF51CF49}"/>
+    <hyperlink ref="J14" r:id="rId5" xr:uid="{BBF335B5-8F8B-482A-9A1B-8ABDC814F6A5}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{CFBE1523-6797-420D-9810-B7D44A931545}"/>
+    <hyperlink ref="J19" r:id="rId7" xr:uid="{B6AC6776-5D55-4C16-92AF-851ECF6888CB}"/>
+    <hyperlink ref="J15" r:id="rId8" xr:uid="{BDB708F1-56CC-4B91-9C85-23A72E646D1E}"/>
+    <hyperlink ref="J5" r:id="rId9" xr:uid="{4AE917E6-B442-4B65-9D42-033D1E116F08}"/>
+    <hyperlink ref="J3" r:id="rId10" xr:uid="{271D345C-8CDB-4263-8F4A-61634620A9CE}"/>
+    <hyperlink ref="J16" r:id="rId11" xr:uid="{FA4F60C1-EFCA-41EE-9D18-603023070513}"/>
+    <hyperlink ref="J17" r:id="rId12" xr:uid="{207862A2-1171-4A54-83EF-76491C4A3031}"/>
+    <hyperlink ref="J7" r:id="rId13" xr:uid="{3F4EDC2B-FE54-48A5-AC62-2E5E4375852D}"/>
+    <hyperlink ref="J11" r:id="rId14" xr:uid="{35267114-B09E-45EF-89E4-7D69DD8A4572}"/>
+    <hyperlink ref="J4" r:id="rId15" xr:uid="{E11FDD15-270E-40B3-B9D2-CD04B526C064}"/>
+    <hyperlink ref="J18" r:id="rId16" xr:uid="{D47AF658-9914-47E5-B6C3-45010020D081}"/>
+    <hyperlink ref="J12" r:id="rId17" xr:uid="{70DD0E82-E0E9-4EDE-9F40-E08618CF05BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId18"/>
+</worksheet>
 </file>
--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,23 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60186362-7099-48C0-85AA-BEB17B6C3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF994B8-6B00-479F-BF35-DB29CFE8BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="1095" windowWidth="14670" windowHeight="10050" firstSheet="4" activeTab="5" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="820" activeTab="4" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId1"/>
-    <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId2"/>
-    <sheet name="Acronis(1596784)" sheetId="3" r:id="rId3"/>
-    <sheet name="Banggood(4498040)" sheetId="4" r:id="rId4"/>
-    <sheet name="iPage(2797026)" sheetId="5" r:id="rId5"/>
-    <sheet name="Wondershare(3194603)" sheetId="6" r:id="rId6"/>
+    <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
+    <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId2"/>
+    <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId3"/>
+    <sheet name="Acronis(1596784)" sheetId="3" r:id="rId4"/>
+    <sheet name="Banggood(4498040)" sheetId="4" r:id="rId5"/>
+    <sheet name="iPage(2797026)" sheetId="5" r:id="rId6"/>
+    <sheet name="Wondershare(3194603)" sheetId="6" r:id="rId7"/>
+    <sheet name="eBooks(904879)" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'iPage(2797026)'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'iPage(2797026)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Wondershare(3194603)'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="415">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -832,6 +835,904 @@
   <si>
     <t>&lt;a href="https://www.dpbolvw.net/click-100678624-13467302" target="_blank"&gt;
 &lt;img src="https://www.tqlkg.com/image-100678624-13467302" width="728" height="90" alt="Remove PDF Password in a Second" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13993476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-13993476" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-13993476" width="728" height="90" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drfone.wondershare.com/android-data-recovery.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14005410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-14005410" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-14005410" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14005446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-14005446" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-14005446" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drfone.wondershare.com/android-backup-and-restore.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14005452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-14005452" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-14005452" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drfone.wondershare.com/iphone-backup-and-restore.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-14009111" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-14009111" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14009111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Repair your iOS system without data loss. Easy and simple.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14009104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr.fone-System Repair - Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drfone.wondershare.com/android-repair.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678628-14009104" target="_top"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678628-14009104" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remove Android Pattern, PIN, Password and Fingerprints in 5 minutes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14009095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-14009095" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-14009095" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drfone.wondershare.com/android-lock-screen-removal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remove the lock screen on iPhone and iPad in just few clicks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-14009099" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-14009099" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drfone.wondershare.com/iphone-unlock.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14009099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-13998599" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-13998599" width="300" height="250" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://filmora.wondershare.com/filmorapro-video-editor/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13998599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Professional video editing made easy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBooks(904879)</t>
+  </si>
+  <si>
+    <t>10779520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBooks Top Fiction Titles Animated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> animated; 468x60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-7064461" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-7064461" width="468" height="60" alt="Download an eBook today" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7064461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ebooks.com/cj.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10769982</t>
+  </si>
+  <si>
+    <t>10769982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（横幅大）</t>
+  </si>
+  <si>
+    <t>728x90</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-10769982" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-10769982" width="728" height="90" alt="Ebooks.com - get them all in just one Click!" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10879265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（垂直中）</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-10879265" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-10879265" width="120" height="600" alt="eBooks.com Digital Bookstore" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10879853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-10879853" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-10879853" width="300" height="250" alt="Spring Promotion from eBooks.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9497197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民俗与神话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-9497197" target="_blank"&gt;Folklore &amp; Mythology&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-9497197" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹饪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-7330576" target="_blank"&gt;Cooking eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330576" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身心灵精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-7330588" target="_blank"&gt;Body, Mind &amp; Spirit eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7330588" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科幻小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-7330593" target="_blank"&gt;Science Fiction eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7330593" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传记和自传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7330581" target="_blank"&gt;Biography and Autobiography eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7330581" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-6215287" target="_blank"&gt;eBooks.com&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-6215287" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBooks.com主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6215287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-10364500" target="_blank"&gt;eBooks.com - Download a book today&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-10364500" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10364500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebooks.com立即下载一本书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-7330586" target="_blank"&gt;History eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330586" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7330592" target="_blank"&gt;Sports and Recreation eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7330592" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动休闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业生涯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-8351227" target="_blank"&gt;Career eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-8351227" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8351227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-11367744" target="_blank"&gt;Engineering eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-11367744" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程电子书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11367744</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-7375592" target="_blank"&gt;Sex eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7375592" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10313183" target="_blank"&gt;Find low priced college textbooks easily at eBooks.com!&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-10313183" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBooks.com促销活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10313183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-7330598" target="_blank"&gt;Science eBooks&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-7330598" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7330590" target="_blank"&gt;Nature eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7330590" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子书礼券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order gift certificates from &lt;a href="https://www.tkqlhce.com/click-100678624-10733794" target="_blank"&gt;eBooks.com&lt;/a&gt;. Give the gift of books with no fuss, no muss and best of all - no shipping delays.&lt;img src="https://www.ftjcfx.com/image-100678624-10733794" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10733794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-7330594" target="_blank"&gt;Study Aid eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330594" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-7375586" target="_blank"&gt;Medical eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7375586" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10494587" target="_blank"&gt;Get Free Excerpts at ebooks.com!!!&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-10494587" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费摘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10494587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-7375591" target="_blank"&gt;Romance eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7375591" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗曼蒂克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过 400,000 种适用于您的 iPad 的书名。 低至 0.99 美元/书！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9253666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-9253666" target="_blank"&gt;Over 400,000 book titles for your iPad. As low as $0.99/book! &lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-9253666" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-7375578" target="_blank"&gt;Foreign Language eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7375578" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-7330577" target="_blank"&gt;Travel eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330577" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7330582" target="_blank"&gt;Religion eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7330582" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-7375587" target="_blank"&gt;Pets eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7375587" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-7375580" target="_blank"&gt;Games eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7375580" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-7330579" target="_blank"&gt;Education eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330579" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-7330580" target="_blank"&gt;Health and Fitness eBooks&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-7330580" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-7330597" target="_blank"&gt;Psychology and Psychiatry eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7330597" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330597</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-7375572" target="_blank"&gt;Architecture eBooks&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-7375572" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375572</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7375585" target="_blank"&gt;Mathematics eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7375585" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-7375590" target="_blank"&gt;Politics eBooks&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-7375590" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-7375588" target="_blank"&gt;Photography eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7375588" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-7330584" target="_blank"&gt;Humor eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-7330584" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-10867060" target="_blank"&gt;Download eBooks, Novels, Comics, and Textbooks to your iPad&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-10867060" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10867060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载适用于 iPad 的电子书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7330578" target="_blank"&gt;Law eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7330578" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-10784038" target="_blank"&gt;eBooks in all academic disciplines&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-10784038" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10784038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-10283559" target="_blank"&gt;eBooks.com Bestsellers&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-10283559" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10283559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅销书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7375577" target="_blank"&gt;Family and Relationships eBooks&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-7375577" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-7375583" target="_blank"&gt;Literary Collections eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7375583" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-9238485" target="_blank"&gt;Erotica eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-9238485" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艳情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9238485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10741601" target="_blank"&gt;Discounted textbooks.&lt;/a&gt; Find cheap new textbooks easily at eBooks.com&lt;img src="https://www.tqlkg.com/image-100678624-10741601" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教科书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10741601</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7375574" target="_blank"&gt;Crafts and Hobbies eBooks&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-7375574" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7375574</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10293535" target="_blank"&gt;English and Language Arts eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-10293535" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10293535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-11367743" target="_blank"&gt;Economonics eBooks&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-11367743" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11367743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-10305994" target="_blank"&gt;Computing eBooks&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-10305994" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10305994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-7330135" target="_blank"&gt;Fiction eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330135" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-7330133" target="_blank"&gt;Children's eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330133" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-7330132" target="_blank"&gt;Business eBooks&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-7330132" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7330132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告分配方案</t>
+  </si>
+  <si>
+    <t>1、三个垂直竖幅，宽度在240以内，高度600。</t>
+  </si>
+  <si>
+    <t>2、保留MMOGA幻灯动画一个。</t>
+  </si>
+  <si>
+    <t>3、文本广告，可设置为：中文14字左右，英文28字左右。</t>
+  </si>
+  <si>
+    <t>左侧栏：</t>
+  </si>
+  <si>
+    <t>两个垂直竖幅</t>
+  </si>
+  <si>
+    <t>一个240x200矩形幅</t>
+  </si>
+  <si>
+    <t>数个文字</t>
+  </si>
+  <si>
+    <t>右侧栏：</t>
+  </si>
+  <si>
+    <t>一个垂直竖幅</t>
+  </si>
+  <si>
+    <t>底部：</t>
+  </si>
+  <si>
+    <t>三到五个大横幅，具体视情况而定。</t>
+  </si>
+  <si>
+    <t>文中：</t>
+  </si>
+  <si>
+    <t>大概有三种选择：</t>
+  </si>
+  <si>
+    <t>1，小横幅（可多次放置）</t>
+  </si>
+  <si>
+    <t>2，矩形，300x250或250x250（可多次放置）</t>
+  </si>
+  <si>
+    <t>3，动画幻灯片（小横幅或矩形）（固定，一篇只能显示一次）</t>
+  </si>
+  <si>
+    <t>Kinguin(4518745)</t>
+  </si>
+  <si>
+    <t>12193130</t>
+  </si>
+  <si>
+    <t>Hostinger(5173193)</t>
+  </si>
+  <si>
+    <t>13608893</t>
+  </si>
+  <si>
+    <t>Acronis(1596784)</t>
+  </si>
+  <si>
+    <t>14491582</t>
+  </si>
+  <si>
+    <t>13454653</t>
+  </si>
+  <si>
+    <t>14454246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-14454246" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-14454246" width="160" height="600" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（垂直大）</t>
+  </si>
+  <si>
+    <t>160x600</t>
+  </si>
+  <si>
+    <t>11471390</t>
+  </si>
+  <si>
+    <t>12637573</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>Candyhosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州棒谷网络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banggood(4498040)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +1740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,13 +1787,48 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -912,7 +1848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +1878,39 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2024,7 +2993,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6846795" y="1367118"/>
+          <a:off x="7864930" y="3660321"/>
           <a:ext cx="235323" cy="1176617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2508,7 +3477,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7864928" y="2707821"/>
+          <a:off x="7864928" y="5007429"/>
           <a:ext cx="394607" cy="1479776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2552,7 +3521,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7864929" y="3905250"/>
+          <a:off x="7864929" y="6681107"/>
           <a:ext cx="394607" cy="1479776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2569,16 +3538,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4259037</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>526529</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5323227</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>658091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2601,8 +3570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8899072" y="2136321"/>
-          <a:ext cx="4259036" cy="526529"/>
+          <a:off x="11378045" y="11308773"/>
+          <a:ext cx="5323227" cy="658091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2613,16 +3582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1506681</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1255567</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1662546</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1385454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2645,8 +3614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="7671955"/>
-          <a:ext cx="1506681" cy="1255567"/>
+          <a:off x="11378045" y="18270682"/>
+          <a:ext cx="1662546" cy="1385454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2658,15 +3627,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2459180</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1714500</xdr:rowOff>
+      <xdr:rowOff>1818416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2689,8 +3658,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="3255818"/>
-          <a:ext cx="457200" cy="1714500"/>
+          <a:off x="11378044" y="6996545"/>
+          <a:ext cx="484911" cy="1818416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2701,16 +3670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4294909</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>530965</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5463308</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>675409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2733,8 +3702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="6736774"/>
-          <a:ext cx="4294909" cy="530964"/>
+          <a:off x="11378045" y="12573000"/>
+          <a:ext cx="5463308" cy="675409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2745,16 +3714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1600201</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1610591</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1342158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2777,8 +3746,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918865" y="9265227"/>
-          <a:ext cx="1600200" cy="1333500"/>
+          <a:off x="11378046" y="19742727"/>
+          <a:ext cx="1610590" cy="1342158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2789,16 +3758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4346863</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>537387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5039591</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>623026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2821,8 +3790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="7793182"/>
-          <a:ext cx="4346863" cy="537387"/>
+          <a:off x="11378045" y="13629409"/>
+          <a:ext cx="5039591" cy="623026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,15 +3802,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1697181</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1267229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2877,16 +3846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1627909</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1356591</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1697182</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1414319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2909,8 +3878,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="11707091"/>
-          <a:ext cx="1627909" cy="1356591"/>
+          <a:off x="11378045" y="21128182"/>
+          <a:ext cx="1697182" cy="1414319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2921,16 +3890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>467591</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>494145</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1753466</xdr:rowOff>
+      <xdr:rowOff>1853045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2953,8 +3922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="1783773"/>
-          <a:ext cx="467591" cy="1753466"/>
+          <a:off x="11378045" y="4935682"/>
+          <a:ext cx="494145" cy="1853045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,15 +3934,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1610591</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1342159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3009,15 +3978,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1731819</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1443181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3053,16 +4022,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>554181</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2078179</xdr:rowOff>
+      <xdr:rowOff>2208070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3085,8 +4054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="7533410"/>
-          <a:ext cx="554181" cy="2078178"/>
+          <a:off x="11378045" y="9005456"/>
+          <a:ext cx="588819" cy="2208069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3097,16 +4066,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4346863</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>537387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5043057</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>623455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3129,8 +4098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="13421591"/>
-          <a:ext cx="4346863" cy="537387"/>
+          <a:off x="11378045" y="14685818"/>
+          <a:ext cx="5043057" cy="623455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3141,16 +4110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1766455</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1472045</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1783773</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1486477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3173,8 +4142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918865" y="23899091"/>
-          <a:ext cx="1766454" cy="1472045"/>
+          <a:off x="11378046" y="26011909"/>
+          <a:ext cx="1783772" cy="1486477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3185,16 +4154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4346863</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>537387</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5323224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>658091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3217,8 +4186,673 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918864" y="16157864"/>
-          <a:ext cx="4346863" cy="537387"/>
+          <a:off x="11378045" y="15950045"/>
+          <a:ext cx="5323224" cy="658091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5385955</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>665847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C352D2ED-8DB1-A9DC-CEA8-923FED873E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918865" y="17214274"/>
+          <a:ext cx="5385954" cy="665846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1783773</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1486476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89837A63-D815-8412-09C0-A7ADC3F5E643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918865" y="27605182"/>
+          <a:ext cx="1783772" cy="1486476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1818409</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1515341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4B7E3C-FFAA-9F7B-A3D5-78EB9AF42658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="29198455"/>
+          <a:ext cx="1818409" cy="1515341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1835727</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1529772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBBB2AB-398D-0AFB-EAA2-C74E95D0B723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="30791727"/>
+          <a:ext cx="1835727" cy="1529772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1818409</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1515341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC26C7E-15A1-A876-E53C-1F4FA544EC2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8918864" y="32385000"/>
+          <a:ext cx="1818409" cy="1515341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1818411</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1515341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401D9E48-075F-4E8A-4334-DFFCD8C68D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11378046" y="33978273"/>
+          <a:ext cx="1818410" cy="1515341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1835729</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1529773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB0F016-E84E-0A75-00EE-DACEFB84CC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11378046" y="35571545"/>
+          <a:ext cx="1835728" cy="1529773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1853047</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1544205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDAE455-3BA1-FA24-F819-CFC2DA31B776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11378046" y="37164818"/>
+          <a:ext cx="1853046" cy="1544205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1645229</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1371023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6005DB5-EAA6-D7FD-F67A-1FF94BCE0B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11378046" y="18270682"/>
+          <a:ext cx="1645228" cy="1371023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2143121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893F97FF-BEE1-D24B-AD05-8797C4B9301A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11378046" y="11308773"/>
+          <a:ext cx="571499" cy="2143121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1620983</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1350818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1833B95B-0440-A0F4-DAA8-9CB17B8F7FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9871365" y="623455"/>
+          <a:ext cx="1620982" cy="1350818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4457143</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>571429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BA6BA0-BF14-F69B-1757-8543F8C0AD61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789227" y="2182091"/>
+          <a:ext cx="4457143" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4554683</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>563079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2452888-667D-278D-3834-8CAAB39EF1B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789228" y="3740727"/>
+          <a:ext cx="4554682" cy="563079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2251362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21353E6D-BEBF-4363-096C-12C3332CA102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789229" y="5299365"/>
+          <a:ext cx="450272" cy="2251361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1714501</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2B5387-F051-CC91-91B2-C6ED072CCE76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789228" y="2182091"/>
+          <a:ext cx="1714500" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3526,12 +5160,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F4F14-7177-4C50-AA19-11B6748DC798}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="18">
+        <v>13454618</v>
+      </c>
+      <c r="J8" t="s">
+        <v>406</v>
+      </c>
+      <c r="K8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>385</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="J9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="K10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="J11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>391</v>
+      </c>
+      <c r="H29" t="s">
+        <v>401</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>397</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>399</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J33" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4B496-3414-426B-B049-8E7FDC7EA1C4}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
@@ -3649,16 +5520,16 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2">
@@ -3889,12 +5760,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C6C225-65C9-4FE6-933E-51A29BE63F8E}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4068,16 +5939,16 @@
     </row>
     <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="2">
@@ -4215,11 +6086,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4406,16 +6279,16 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2">
@@ -4672,12 +6545,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D518C95-AB8A-4007-975A-665548231AB5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4729,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>414</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>98</v>
@@ -4761,7 +6634,9 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
@@ -4833,12 +6708,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5049,16 +6924,16 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2">
@@ -5310,16 +7185,16 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2">
@@ -5366,7 +7241,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -5379,7 +7254,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -5443,12 +7318,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F2C21-F21B-45D4-97F6-A3ECA9FB0E4A}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5457,13 +7332,14 @@
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.125" customWidth="1"/>
-    <col min="9" max="9" width="39.25" customWidth="1"/>
-    <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="73.125" customWidth="1"/>
+    <col min="10" max="10" width="39.25" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5485,20 +7361,23 @@
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5520,21 +7399,24 @@
       <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>44760</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="132" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:12" ht="132" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>138</v>
       </c>
@@ -5553,19 +7435,22 @@
       <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>138</v>
       </c>
@@ -5584,19 +7469,22 @@
       <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>138</v>
       </c>
@@ -5615,17 +7503,20 @@
       <c r="G5" s="2">
         <v>600</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>138</v>
       </c>
@@ -5644,80 +7535,85 @@
       <c r="G6" s="2">
         <v>600</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="16">
         <v>160</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="16">
         <v>600</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>404</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2">
-        <v>728</v>
+        <v>160</v>
       </c>
       <c r="G8" s="2">
-        <v>90</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="99" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
@@ -5731,22 +7627,25 @@
       <c r="G9" s="2">
         <v>90</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
@@ -5760,22 +7659,25 @@
       <c r="G10" s="2">
         <v>90</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="99" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -5789,109 +7691,121 @@
       <c r="G11" s="2">
         <v>90</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="99" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="11">
+        <v>728</v>
+      </c>
+      <c r="G12" s="11">
+        <v>90</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="99" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2">
-        <v>728</v>
-      </c>
-      <c r="G12" s="2">
-        <v>90</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="99" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="3">
-        <v>15305282</v>
+      <c r="C13" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2">
-        <v>300</v>
+        <v>728</v>
       </c>
       <c r="G13" s="2">
-        <v>250</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
-        <v>300</v>
+        <v>728</v>
       </c>
       <c r="G14" s="2">
-        <v>250</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -5905,22 +7819,27 @@
       <c r="G15" s="2">
         <v>250</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="H15" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>167</v>
+      <c r="C16" s="3">
+        <v>15305282</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -5934,22 +7853,25 @@
       <c r="G16" s="2">
         <v>250</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="132" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -5963,22 +7885,25 @@
       <c r="G17" s="2">
         <v>250</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -5992,181 +7917,375 @@
       <c r="G18" s="2">
         <v>250</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G19" s="2">
-        <v>448</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="132" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2">
+        <v>300</v>
+      </c>
+      <c r="G20" s="2">
+        <v>250</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2">
+        <v>300</v>
+      </c>
+      <c r="G21" s="2">
+        <v>250</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2">
+        <v>300</v>
+      </c>
+      <c r="G22" s="2">
+        <v>250</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2">
+        <v>300</v>
+      </c>
+      <c r="G23" s="2">
+        <v>250</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2">
+        <v>300</v>
+      </c>
+      <c r="G24" s="2">
+        <v>250</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <v>300</v>
+      </c>
+      <c r="G25" s="2">
+        <v>250</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2">
+        <v>300</v>
+      </c>
+      <c r="G26" s="2">
+        <v>250</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2">
+        <v>300</v>
+      </c>
+      <c r="G27" s="2">
+        <v>250</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2">
+        <v>300</v>
+      </c>
+      <c r="G28" s="2">
+        <v>250</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="2">
+        <v>600</v>
+      </c>
+      <c r="G29" s="2">
+        <v>448</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -6174,12 +8293,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="H30" s="10"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -6187,33 +8307,1619 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="5"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{517F2C21-F21B-45D4-97F6-A3ECA9FB0E4A}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{7DA3FCC9-C081-44DF-9D78-7EA484700E35}"/>
+    <hyperlink ref="K16" r:id="rId2" xr:uid="{0C25957C-8CE5-44D5-9290-AF35FD509E06}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{69CBD378-2E34-44DD-A117-0AFF2A54FA9A}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{28BC7B2A-BAB0-4845-8BAA-95BEAF51CF49}"/>
+    <hyperlink ref="K17" r:id="rId5" xr:uid="{BBF335B5-8F8B-482A-9A1B-8ABDC814F6A5}"/>
+    <hyperlink ref="K11" r:id="rId6" xr:uid="{CFBE1523-6797-420D-9810-B7D44A931545}"/>
+    <hyperlink ref="K29" r:id="rId7" xr:uid="{B6AC6776-5D55-4C16-92AF-851ECF6888CB}"/>
+    <hyperlink ref="K18" r:id="rId8" xr:uid="{BDB708F1-56CC-4B91-9C85-23A72E646D1E}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{4AE917E6-B442-4B65-9D42-033D1E116F08}"/>
+    <hyperlink ref="K3" r:id="rId10" xr:uid="{271D345C-8CDB-4263-8F4A-61634620A9CE}"/>
+    <hyperlink ref="K19" r:id="rId11" xr:uid="{FA4F60C1-EFCA-41EE-9D18-603023070513}"/>
+    <hyperlink ref="K20" r:id="rId12" xr:uid="{207862A2-1171-4A54-83EF-76491C4A3031}"/>
+    <hyperlink ref="K7" r:id="rId13" xr:uid="{3F4EDC2B-FE54-48A5-AC62-2E5E4375852D}"/>
+    <hyperlink ref="K12" r:id="rId14" xr:uid="{35267114-B09E-45EF-89E4-7D69DD8A4572}"/>
+    <hyperlink ref="K4" r:id="rId15" xr:uid="{E11FDD15-270E-40B3-B9D2-CD04B526C064}"/>
+    <hyperlink ref="K21" r:id="rId16" xr:uid="{D47AF658-9914-47E5-B6C3-45010020D081}"/>
+    <hyperlink ref="K13" r:id="rId17" xr:uid="{70DD0E82-E0E9-4EDE-9F40-E08618CF05BD}"/>
+    <hyperlink ref="K14" r:id="rId18" xr:uid="{D1448CC2-7067-4AC1-94D2-99CBBD21D116}"/>
+    <hyperlink ref="K22" r:id="rId19" xr:uid="{19265DFE-C5B6-4552-8A6C-72C453C83EA8}"/>
+    <hyperlink ref="K23" r:id="rId20" xr:uid="{2EEC46A1-AF2A-457D-80EA-AEF78E590AE2}"/>
+    <hyperlink ref="K24" r:id="rId21" xr:uid="{29142322-5FFF-4EFD-8F6F-58289F27D3A6}"/>
+    <hyperlink ref="K26" r:id="rId22" xr:uid="{DA38E965-5ACE-46C3-B770-2D0255A553E9}"/>
+    <hyperlink ref="K27" r:id="rId23" xr:uid="{0371411A-FF1F-4ADA-981D-AD09B0990675}"/>
+    <hyperlink ref="K28" r:id="rId24" xr:uid="{B6F96B44-01C5-4A3A-8FBA-84EEDA558BB5}"/>
+    <hyperlink ref="K15" r:id="rId25" xr:uid="{E944794C-88B6-4E45-8FCA-B5D252A75444}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A783B-D3CA-4346-BC54-B7FE04CCE598}">
+  <dimension ref="A1:L69"/>
+  <sheetViews>
+    <sheetView topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.75" customWidth="1"/>
+    <col min="9" max="9" width="66" customWidth="1"/>
+    <col min="10" max="10" width="89.875" customWidth="1"/>
+    <col min="11" max="11" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>300</v>
+      </c>
+      <c r="G3" s="2">
+        <v>250</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>250</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>468</v>
+      </c>
+      <c r="G5" s="2">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>728</v>
+      </c>
+      <c r="G6" s="2">
+        <v>90</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2">
+        <v>120</v>
+      </c>
+      <c r="G7" s="2">
+        <v>600</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" xr:uid="{7DA3FCC9-C081-44DF-9D78-7EA484700E35}"/>
-    <hyperlink ref="J13" r:id="rId2" xr:uid="{0C25957C-8CE5-44D5-9290-AF35FD509E06}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{69CBD378-2E34-44DD-A117-0AFF2A54FA9A}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{28BC7B2A-BAB0-4845-8BAA-95BEAF51CF49}"/>
-    <hyperlink ref="J14" r:id="rId5" xr:uid="{BBF335B5-8F8B-482A-9A1B-8ABDC814F6A5}"/>
-    <hyperlink ref="J10" r:id="rId6" xr:uid="{CFBE1523-6797-420D-9810-B7D44A931545}"/>
-    <hyperlink ref="J19" r:id="rId7" xr:uid="{B6AC6776-5D55-4C16-92AF-851ECF6888CB}"/>
-    <hyperlink ref="J15" r:id="rId8" xr:uid="{BDB708F1-56CC-4B91-9C85-23A72E646D1E}"/>
-    <hyperlink ref="J5" r:id="rId9" xr:uid="{4AE917E6-B442-4B65-9D42-033D1E116F08}"/>
-    <hyperlink ref="J3" r:id="rId10" xr:uid="{271D345C-8CDB-4263-8F4A-61634620A9CE}"/>
-    <hyperlink ref="J16" r:id="rId11" xr:uid="{FA4F60C1-EFCA-41EE-9D18-603023070513}"/>
-    <hyperlink ref="J17" r:id="rId12" xr:uid="{207862A2-1171-4A54-83EF-76491C4A3031}"/>
-    <hyperlink ref="J7" r:id="rId13" xr:uid="{3F4EDC2B-FE54-48A5-AC62-2E5E4375852D}"/>
-    <hyperlink ref="J11" r:id="rId14" xr:uid="{35267114-B09E-45EF-89E4-7D69DD8A4572}"/>
-    <hyperlink ref="J4" r:id="rId15" xr:uid="{E11FDD15-270E-40B3-B9D2-CD04B526C064}"/>
-    <hyperlink ref="J18" r:id="rId16" xr:uid="{D47AF658-9914-47E5-B6C3-45010020D081}"/>
-    <hyperlink ref="J12" r:id="rId17" xr:uid="{70DD0E82-E0E9-4EDE-9F40-E08618CF05BD}"/>
+    <hyperlink ref="K5" r:id="rId1" xr:uid="{053B966F-BAE6-46D9-A3DA-36CC010B6D39}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{1746662D-F81A-4484-BA9C-39DE168DC1CD}"/>
+    <hyperlink ref="K7" r:id="rId3" xr:uid="{66F77CFE-B7A6-445B-9898-7524F468BDD6}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{8D7F09A4-0501-4657-A796-EC5C926299D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF994B8-6B00-479F-BF35-DB29CFE8BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AB45A-4022-4726-B157-E7B17471D825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="820" activeTab="4" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="3555" yWindow="915" windowWidth="14670" windowHeight="10050" tabRatio="820" firstSheet="2" activeTab="6" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="432">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1724,16 +1724,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州棒谷网络科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Banggood(4498040)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x200</t>
+  </si>
+  <si>
+    <t>矩形小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14454246</t>
+  </si>
+  <si>
+    <t>12248829</t>
+  </si>
+  <si>
+    <t>网幅（矩形小）</t>
+  </si>
+  <si>
+    <t>13568843</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>150x40</t>
+  </si>
+  <si>
+    <t>13660621</t>
+  </si>
+  <si>
+    <t>15042042</t>
+  </si>
+  <si>
+    <t>网幅（矩形大）</t>
+  </si>
+  <si>
+    <t>336x280</t>
+  </si>
+  <si>
+    <t>12193131</t>
+  </si>
+  <si>
+    <t>15010209</t>
+  </si>
+  <si>
+    <t>14321487</t>
+  </si>
+  <si>
+    <t>14491594</t>
+  </si>
+  <si>
+    <t>13608890</t>
+  </si>
+  <si>
+    <t>12085996</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1862,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1827,6 +1878,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,7 +1911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,6 +1974,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5161,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F4F14-7177-4C50-AA19-11B6748DC798}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5237,8 +5321,11 @@
         <v>411</v>
       </c>
       <c r="I10" s="18"/>
+      <c r="J10" t="s">
+        <v>415</v>
+      </c>
       <c r="K10" t="s">
-        <v>412</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5255,25 +5342,73 @@
         <v>410</v>
       </c>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="J18" t="s">
+        <v>406</v>
+      </c>
+      <c r="K18" t="s">
+        <v>407</v>
+      </c>
+    </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>388</v>
       </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="J19" t="s">
+        <v>418</v>
+      </c>
+      <c r="K19" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>389</v>
       </c>
+      <c r="H20" t="s">
+        <v>399</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="J20" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>386</v>
       </c>
+      <c r="H21" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="J21" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>387</v>
       </c>
+      <c r="I22" s="23"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -5369,25 +5504,113 @@
       <c r="A37" t="s">
         <v>392</v>
       </c>
+      <c r="H37" t="s">
+        <v>397</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="J37" t="s">
+        <v>424</v>
+      </c>
+      <c r="K37" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>393</v>
       </c>
+      <c r="H38" t="s">
+        <v>397</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="J38" t="s">
+        <v>424</v>
+      </c>
+      <c r="K38" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>394</v>
       </c>
+      <c r="H39" t="s">
+        <v>397</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="J39" t="s">
+        <v>424</v>
+      </c>
+      <c r="K39" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>395</v>
       </c>
+      <c r="H40" t="s">
+        <v>399</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="J40" t="s">
+        <v>424</v>
+      </c>
+      <c r="K40" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>396</v>
+      </c>
+      <c r="H41" t="s">
+        <v>401</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="J41" t="s">
+        <v>424</v>
+      </c>
+      <c r="K41" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>401</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="J42" t="s">
+        <v>424</v>
+      </c>
+      <c r="K42" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>431</v>
+      </c>
+      <c r="J43" t="s">
+        <v>424</v>
+      </c>
+      <c r="K43" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5401,8 +5624,8 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:E4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
@@ -5616,19 +5839,19 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="26">
         <v>336</v>
       </c>
       <c r="G7" s="2">
@@ -5648,19 +5871,19 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="26">
         <v>336</v>
       </c>
       <c r="G8" s="2">
@@ -5677,19 +5900,19 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="26">
         <v>336</v>
       </c>
       <c r="G9" s="2">
@@ -5765,7 +5988,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5854,16 +6077,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="2">
@@ -5997,16 +6220,16 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="24" t="s">
         <v>66</v>
       </c>
       <c r="F8" s="2">
@@ -6091,7 +6314,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B10" sqref="B10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6411,16 +6634,16 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="2">
@@ -6444,16 +6667,16 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2">
@@ -6549,7 +6772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D518C95-AB8A-4007-975A-665548231AB5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6602,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>98</v>
@@ -6635,7 +6858,7 @@
     <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -6712,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6953,16 +7176,16 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="21" t="s">
         <v>106</v>
       </c>
       <c r="F8" s="2">
@@ -7127,16 +7350,16 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="2">
@@ -7322,8 +7545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F2C21-F21B-45D4-97F6-A3ECA9FB0E4A}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7579,16 +7802,16 @@
     </row>
     <row r="8" spans="1:12" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2">
@@ -7801,16 +8024,16 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="2">
@@ -7835,16 +8058,16 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="25">
         <v>15305282</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="2">
@@ -7867,16 +8090,16 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="2">
@@ -7899,16 +8122,16 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2">
@@ -7931,16 +8154,16 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="2">
@@ -7963,16 +8186,16 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="2">
@@ -7995,16 +8218,16 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="2">
@@ -8027,16 +8250,16 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="2">
@@ -8059,16 +8282,16 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="2">
@@ -8091,16 +8314,16 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="2">
@@ -8123,16 +8346,16 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="2">
@@ -8155,16 +8378,16 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="2">
@@ -8189,16 +8412,16 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="2">
@@ -8223,16 +8446,16 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="2">
@@ -8492,8 +8715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A783B-D3CA-4346-BC54-B7FE04CCE598}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AB45A-4022-4726-B157-E7B17471D825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA0C52-DD3F-40D8-A64D-33F97A2EDB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="915" windowWidth="14670" windowHeight="10050" tabRatio="820" firstSheet="2" activeTab="6" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="4275" yWindow="495" windowWidth="14670" windowHeight="10050" tabRatio="672" activeTab="1" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
-    <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId2"/>
-    <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId3"/>
-    <sheet name="Acronis(1596784)" sheetId="3" r:id="rId4"/>
-    <sheet name="Banggood(4498040)" sheetId="4" r:id="rId5"/>
-    <sheet name="iPage(2797026)" sheetId="5" r:id="rId6"/>
-    <sheet name="Wondershare(3194603)" sheetId="6" r:id="rId7"/>
-    <sheet name="eBooks(904879)" sheetId="7" r:id="rId8"/>
+    <sheet name="2Game.com(5008074)" sheetId="9" r:id="rId2"/>
+    <sheet name="Kinguin(4518745)" sheetId="1" r:id="rId3"/>
+    <sheet name="Hostinger(5173193)" sheetId="2" r:id="rId4"/>
+    <sheet name="Acronis(1596784)" sheetId="3" r:id="rId5"/>
+    <sheet name="Banggood(4498040)" sheetId="4" r:id="rId6"/>
+    <sheet name="iPage(2797026)" sheetId="5" r:id="rId7"/>
+    <sheet name="Wondershare(3194603)" sheetId="6" r:id="rId8"/>
+    <sheet name="eBooks(904879)" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'iPage(2797026)'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Wondershare(3194603)'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Hostinger(5173193)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'iPage(2797026)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Kinguin(4518745)'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Wondershare(3194603)'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="464">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1785,6 +1786,141 @@
   </si>
   <si>
     <t>12085996</t>
+  </si>
+  <si>
+    <t>2Game.com(5008074)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13160999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Game US - Official Authorised Digital Retailer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-13160999" target="_blank"&gt;2Game US - Official Authorised Digital Retailer&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-13160999" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13160994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-13160994" target="_blank"&gt;2Game - Hot Deals&lt;/a&gt;&lt;img src="https://www.awltovhc.com/image-100678624-13160994" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Game US - Hot Deals, so you never miss out on the bargains!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-13747931" target="_blank"&gt;2Game US - Official Authorised Digital Retailer&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-13747931" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13747931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-13160995" target="_blank"&gt;2Game - Bundled Games&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-13160995" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13160995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-13157524" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-13157524" width="120" height="600" alt="2Game - Official Authorised Digital Retailer" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-13157528" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-13157528" width="468" height="60" alt="2Game - Official Authorised Digital Retailer" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13157528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13157524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-14093448" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-14093448" width="468" height="60" alt="2Game - Official Authorised Digital Retailer" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14093448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-14093432" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-14093432" width="234" height="60" alt="2Game - Official Authorised Digital Retailer" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14093432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网幅（横幅小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>234x60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-14093450" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-14093450" width="728" height="90" alt="2Game - Official Authorised Digital Retailer" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14093450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.tkqlhce.com/click-100678624-14093443" target="_blank"&gt;
+&lt;img src="https://www.tqlkg.com/image-100678624-14093443" width="300" height="250" alt="2Game - Official Authorised Digital Retailer" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14093443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-13157527" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-13157527" width="234" height="60" alt="2Game - Official Authorised Digital Retailer" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13157527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13129874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Game UK - Official Authorised Digital Retailer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.anrdoezrs.net/click-100678624-13129874" target="_blank"&gt;2Game UK - Official Authorised Digital Retailer&lt;/a&gt;&lt;img src="https://www.tqlkg.com/image-100678624-13129874" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Game UK - Hot Deals, so you never miss out on the bargains!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2Game EU - Hot Deals, so you never miss out on the bargains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2015,6 +2151,319 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1687287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8587DD04-8B7C-5A1B-CBEF-D992A44D3057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8504465" y="4503965"/>
+          <a:ext cx="337457" cy="1687286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4457143</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>571429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85DDC28-D3ED-DC44-AFA8-C3E5760B6FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8468591" y="7723909"/>
+          <a:ext cx="4457143" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4457143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>571429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F43ABC4-78EE-D778-9C45-BE9595454315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8468591" y="6667500"/>
+          <a:ext cx="4457143" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2228571</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>571429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B81E315-7FEB-3551-A4F6-9106961B565C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8468591" y="6667500"/>
+          <a:ext cx="2228571" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4622799</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>571501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAD5ED6-678B-91E7-8C82-0FECC7739926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8468591" y="10910456"/>
+          <a:ext cx="4622799" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1541319</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1284431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449299D7-0961-B629-9294-8EAB17C1AB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8468592" y="11966864"/>
+          <a:ext cx="1541318" cy="1284431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2228571</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>571429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20304A07-BE52-B16E-4592-161CA9A8B78A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8468591" y="8797636"/>
+          <a:ext cx="2228571" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2371,7 +2820,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2640,7 +3089,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3041,7 +3490,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3618,7 +4067,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4723,7 +5172,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5620,11 +6069,571 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA8C63-0CC3-48B3-B181-6C496F73B621}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2">
+        <v>120</v>
+      </c>
+      <c r="G7" s="2">
+        <v>600</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="2">
+        <v>234</v>
+      </c>
+      <c r="G8" s="2">
+        <v>60</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="2">
+        <v>234</v>
+      </c>
+      <c r="G9" s="2">
+        <v>60</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>468</v>
+      </c>
+      <c r="G10" s="2">
+        <v>60</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>468</v>
+      </c>
+      <c r="G11" s="2">
+        <v>60</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
+        <v>728</v>
+      </c>
+      <c r="G12" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>250</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA4B496-3414-426B-B049-8E7FDC7EA1C4}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
@@ -5983,12 +6992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C6C225-65C9-4FE6-933E-51A29BE63F8E}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6309,7 +7318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -6768,7 +7777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D518C95-AB8A-4007-975A-665548231AB5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -6931,7 +7940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -7541,11 +8550,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F2C21-F21B-45D4-97F6-A3ECA9FB0E4A}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="G27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -8711,7 +9720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A783B-D3CA-4346-BC54-B7FE04CCE598}">
   <dimension ref="A1:L69"/>
   <sheetViews>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA0C52-DD3F-40D8-A64D-33F97A2EDB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79A7C2-ABE1-4B9B-ADAD-50DD362F5E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="495" windowWidth="14670" windowHeight="10050" tabRatio="672" activeTab="1" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="4395" yWindow="375" windowWidth="14670" windowHeight="10050" tabRatio="672" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1921,6 +1921,28 @@
   <si>
     <t xml:space="preserve"> 2Game EU - Hot Deals, so you never miss out on the bargains</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 Carousel Banner 插件可实现同一区域的幻灯片轮播。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直（左、右两侧）和底部，以及文中均可使用幻灯轮播效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部在幻灯下部可保留一个底部手动广告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Game.com(5008074)</t>
+  </si>
+  <si>
+    <t>14093450</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2020,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2029,6 +2051,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2047,7 +2075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2130,6 +2158,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5694,10 +5728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F4F14-7177-4C50-AA19-11B6748DC798}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5742,7 +5776,7 @@
         <v>406</v>
       </c>
       <c r="K8" t="s">
-        <v>407</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5909,10 +5943,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H31" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="J31" t="s">
         <v>225</v>
@@ -5921,60 +5955,57 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="H32" s="15" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>397</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H33" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I33" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K33" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
         <v>399</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I34" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J34" t="s">
         <v>225</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K34" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>392</v>
-      </c>
-      <c r="H37" t="s">
-        <v>397</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="J37" t="s">
-        <v>424</v>
-      </c>
-      <c r="K37" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H38" t="s">
         <v>397</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J38" t="s">
         <v>424</v>
@@ -5985,13 +6016,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H39" t="s">
         <v>397</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J39" t="s">
         <v>424</v>
@@ -6002,13 +6033,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H40" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J40" t="s">
         <v>424</v>
@@ -6019,13 +6050,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J41" t="s">
         <v>424</v>
@@ -6035,11 +6066,14 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>396</v>
+      </c>
       <c r="H42" t="s">
         <v>401</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J42" t="s">
         <v>424</v>
@@ -6050,16 +6084,50 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" t="s">
-        <v>431</v>
+        <v>401</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>429</v>
       </c>
       <c r="J43" t="s">
         <v>424</v>
       </c>
       <c r="K43" t="s">
         <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="J44" t="s">
+        <v>424</v>
+      </c>
+      <c r="K44" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6072,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA8C63-0CC3-48B3-B181-6C496F73B621}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="B6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6413,16 +6481,16 @@
     </row>
     <row r="12" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2">
@@ -6465,7 +6533,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -6478,7 +6546,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -6491,7 +6559,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -6504,7 +6572,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -6517,7 +6585,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -6530,7 +6598,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -6543,7 +6611,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -6556,7 +6624,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -6569,7 +6637,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -6582,7 +6650,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -6595,7 +6663,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -6608,7 +6676,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -6634,7 +6702,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:E9"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
@@ -6997,7 +7065,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7322,8 +7390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E11"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7944,8 +8012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8554,8 +8622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F2C21-F21B-45D4-97F6-A3ECA9FB0E4A}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="G27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9724,8 +9792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A783B-D3CA-4346-BC54-B7FE04CCE598}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="F7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79A7C2-ABE1-4B9B-ADAD-50DD362F5E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECC642-9FDE-4000-8060-EDE6A2BAFFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="375" windowWidth="14670" windowHeight="10050" tabRatio="672" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="5265" yWindow="210" windowWidth="14670" windowHeight="10050" tabRatio="672" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="483">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1943,13 +1943,65 @@
   </si>
   <si>
     <t>14093450</t>
+  </si>
+  <si>
+    <t>网站布局示意图：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直左侧栏（幻灯片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直左侧栏手动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eBook.com文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文中广告（幻灯片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文中广告手动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直右侧栏（幻灯片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直右侧栏手动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部广告（幻灯片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部广告手动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baidu Push 等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,8 +2071,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2057,13 +2118,99 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2075,7 +2222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2164,6 +2311,99 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5728,14 +5968,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F4F14-7177-4C50-AA19-11B6748DC798}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
@@ -6120,17 +6361,137 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>467</v>
       </c>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="56"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="E56" s="57" t="s">
+        <v>474</v>
+      </c>
+      <c r="F56" s="58"/>
+      <c r="H56" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="I56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="E58" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="F58" s="58"/>
+      <c r="H58" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="I58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="E59" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="F59" s="58"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="H60" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="60"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="42"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="50"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="54"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ECC642-9FDE-4000-8060-EDE6A2BAFFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FFC084-CCAD-4D64-99CA-F58285DD2C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="210" windowWidth="14670" windowHeight="10050" tabRatio="672" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="672" activeTab="9" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="iPage(2797026)" sheetId="5" r:id="rId7"/>
     <sheet name="Wondershare(3194603)" sheetId="6" r:id="rId8"/>
     <sheet name="eBooks(904879)" sheetId="7" r:id="rId9"/>
+    <sheet name="Sugarhosts" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="498">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1721,10 +1722,6 @@
     <t>文字</t>
   </si>
   <si>
-    <t>Candyhosts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州棒谷网络科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1994,6 +1991,81 @@
   </si>
   <si>
     <t>Baidu Push 等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugarhosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-160x600.png" width="160" height="600" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-300x600.png" width="300" height="600" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970x90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-320x50.png" width="320" height="50" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-320x100.png" width="320" height="100" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-468x60.png" width="468" height="60" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-728x90.png" width="728" height="90" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-970x90.png" width="970" height="90" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-200x200.png" width="200" height="200" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-250x250.png" width="250" height="250" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-300x250.png" width="300" height="250" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;
+&lt;img src="https://www.sugarhosts.com/images/affiliate/ads/sugarhosts-ad-common-cn-336x280.png" width="336" height="280" alt="Sugarhosts.com" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;★优秀免备案香港虚拟主机★&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2081,7 +2153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,6 +2193,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,7 +2312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2358,9 +2448,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2370,9 +2457,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2381,9 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2404,6 +2485,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5970,8 +6069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F4F14-7177-4C50-AA19-11B6748DC798}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6042,11 +6141,11 @@
         <v>386</v>
       </c>
       <c r="H10" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K10" t="s">
         <v>106</v>
@@ -6071,7 +6170,7 @@
         <v>138</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J18" t="s">
         <v>406</v>
@@ -6088,13 +6187,13 @@
         <v>101</v>
       </c>
       <c r="I19" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="J19" t="s">
         <v>417</v>
       </c>
-      <c r="J19" t="s">
-        <v>418</v>
-      </c>
       <c r="K19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -6105,13 +6204,13 @@
         <v>399</v>
       </c>
       <c r="I20" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="J20" t="s">
         <v>419</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>420</v>
-      </c>
-      <c r="K20" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -6122,7 +6221,7 @@
         <v>399</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J21" t="s">
         <v>410</v>
@@ -6184,10 +6283,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H31" t="s">
+        <v>467</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>468</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>469</v>
       </c>
       <c r="J31" t="s">
         <v>225</v>
@@ -6246,13 +6345,13 @@
         <v>397</v>
       </c>
       <c r="I38" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="J38" t="s">
         <v>423</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>424</v>
-      </c>
-      <c r="K38" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -6263,13 +6362,13 @@
         <v>397</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J39" t="s">
+        <v>423</v>
+      </c>
+      <c r="K39" t="s">
         <v>424</v>
-      </c>
-      <c r="K39" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -6280,13 +6379,13 @@
         <v>397</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J40" t="s">
+        <v>423</v>
+      </c>
+      <c r="K40" t="s">
         <v>424</v>
-      </c>
-      <c r="K40" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -6297,13 +6396,13 @@
         <v>399</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J41" t="s">
+        <v>423</v>
+      </c>
+      <c r="K41" t="s">
         <v>424</v>
-      </c>
-      <c r="K41" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -6314,13 +6413,13 @@
         <v>401</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J42" t="s">
+        <v>423</v>
+      </c>
+      <c r="K42" t="s">
         <v>424</v>
-      </c>
-      <c r="K42" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -6328,13 +6427,13 @@
         <v>401</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J43" t="s">
+        <v>423</v>
+      </c>
+      <c r="K43" t="s">
         <v>424</v>
-      </c>
-      <c r="K43" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -6342,149 +6441,149 @@
         <v>101</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J44" t="s">
+        <v>423</v>
+      </c>
+      <c r="K44" t="s">
         <v>424</v>
-      </c>
-      <c r="K44" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="31"/>
       <c r="C55" s="32"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="56"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="53"/>
       <c r="H55" s="37"/>
       <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C56" s="34"/>
-      <c r="E56" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="F56" s="58"/>
+      <c r="E56" s="54" t="s">
+        <v>473</v>
+      </c>
+      <c r="F56" s="55"/>
       <c r="H56" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I56" s="40"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="33"/>
       <c r="C57" s="34"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
       <c r="H57" s="39"/>
       <c r="I57" s="40"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C58" s="34"/>
-      <c r="E58" s="57" t="s">
-        <v>475</v>
-      </c>
-      <c r="F58" s="58"/>
+      <c r="E58" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="F58" s="55"/>
       <c r="H58" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I58" s="40"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="33"/>
       <c r="C59" s="34"/>
-      <c r="E59" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="F59" s="58"/>
+      <c r="E59" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="F59" s="55"/>
       <c r="H59" s="39"/>
       <c r="I59" s="40"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C60" s="34"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="58"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="55"/>
       <c r="H60" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I60" s="40"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="35"/>
       <c r="C61" s="36"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
       <c r="H61" s="41"/>
       <c r="I61" s="42"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="45"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="46"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49" t="s">
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="48"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="49"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="50"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="51"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53" t="s">
-        <v>482</v>
-      </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="54"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6497,12 +6596,644 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A593217-788A-40DE-8F89-5D4448ED0A20}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.75" customWidth="1"/>
+    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>160</v>
+      </c>
+      <c r="G3" s="2">
+        <v>600</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>600</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F5" s="2">
+        <v>320</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="2">
+        <v>320</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>468</v>
+      </c>
+      <c r="G7" s="2">
+        <v>60</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>728</v>
+      </c>
+      <c r="G8" s="2">
+        <v>90</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" s="2">
+        <v>970</v>
+      </c>
+      <c r="G9" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="2">
+        <v>250</v>
+      </c>
+      <c r="G11" s="2">
+        <v>250</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2">
+        <v>300</v>
+      </c>
+      <c r="G12" s="2">
+        <v>250</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2">
+        <v>336</v>
+      </c>
+      <c r="G13" s="2">
+        <v>280</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EA8C63-0CC3-48B3-B181-6C496F73B621}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6559,10 +7290,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -6577,10 +7308,10 @@
         <v>43</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="5">
@@ -6590,10 +7321,10 @@
     <row r="3" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -6608,10 +7339,10 @@
         <v>43</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
@@ -6619,10 +7350,10 @@
     <row r="4" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -6637,10 +7368,10 @@
         <v>43</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="5">
@@ -6650,10 +7381,10 @@
     <row r="5" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -6668,10 +7399,10 @@
         <v>43</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
@@ -6679,10 +7410,10 @@
     <row r="6" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -6697,10 +7428,10 @@
         <v>43</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
@@ -6708,10 +7439,10 @@
     <row r="7" spans="1:11" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>54</v>
@@ -6727,7 +7458,7 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
@@ -6735,16 +7466,16 @@
     <row r="8" spans="1:11" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="F8" s="2">
         <v>234</v>
@@ -6754,7 +7485,7 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
@@ -6762,16 +7493,16 @@
     <row r="9" spans="1:11" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="F9" s="2">
         <v>234</v>
@@ -6781,7 +7512,7 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
@@ -6789,10 +7520,10 @@
     <row r="10" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
@@ -6808,7 +7539,7 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
@@ -6816,10 +7547,10 @@
     <row r="11" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -6835,7 +7566,7 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
@@ -6843,10 +7574,10 @@
     <row r="12" spans="1:11" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>38</v>
@@ -6862,7 +7593,7 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
@@ -6870,10 +7601,10 @@
     <row r="13" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -6889,7 +7620,7 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
@@ -7063,14 +7794,14 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.25" style="2" bestFit="1" customWidth="1"/>
@@ -7426,7 +8157,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7751,7 +8482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAA066-3939-4895-9388-339209ADB4BC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -8263,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>98</v>
@@ -8296,7 +9027,7 @@
     <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -8373,8 +9104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33110039-6B7A-4969-AAFB-135C579B3C93}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8983,7 +9714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517F2C21-F21B-45D4-97F6-A3ECA9FB0E4A}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -10153,8 +10884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A783B-D3CA-4346-BC54-B7FE04CCE598}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FFC084-CCAD-4D64-99CA-F58285DD2C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3578BA25-1D0A-4EFF-AED2-714318A45DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="672" activeTab="9" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="672" firstSheet="5" activeTab="8" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="499">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2066,6 +2066,11 @@
   </si>
   <si>
     <t>&lt;a href="https://www.sugarhosts.com/members/aff.php?aff=3817" target="_blank"&gt;★优秀免备案香港虚拟主机★&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10779520" target="_blank"&gt;
+&lt;img src="https://www.awltovhc.com/image-100678624-10779520" width="300" height="250" alt="eBooks.com Fiction Bestsellers" border="0"/&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2487,6 +2492,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2495,15 +2509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6552,36 +6557,36 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="44"/>
       <c r="I63" s="45"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="46"/>
       <c r="C64" s="47"/>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
       <c r="H64" s="47"/>
       <c r="I64" s="48"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="49"/>
       <c r="C65" s="50"/>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="50"/>
       <c r="I65" s="51"/>
     </row>
@@ -6600,7 +6605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A593217-788A-40DE-8F89-5D4448ED0A20}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6690,7 +6695,7 @@
         <v>482</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="58" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -6716,7 +6721,7 @@
         <v>482</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="58" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -6742,7 +6747,7 @@
         <v>482</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="59" t="s">
         <v>450</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -6768,7 +6773,7 @@
         <v>482</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -6794,7 +6799,7 @@
         <v>482</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -6820,7 +6825,7 @@
         <v>482</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -6846,7 +6851,7 @@
         <v>482</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="59" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -6872,7 +6877,7 @@
         <v>482</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -6898,7 +6903,7 @@
         <v>482</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="60" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -6924,7 +6929,7 @@
         <v>482</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="60" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -6950,7 +6955,7 @@
         <v>482</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="60" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -10884,8 +10889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A783B-D3CA-4346-BC54-B7FE04CCE598}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11000,7 +11005,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="7" t="s">
-        <v>140</v>
+        <v>498</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>141</v>

--- a/11_付费课程/广告联盟备忘.xlsx
+++ b/11_付费课程/广告联盟备忘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\11_付费课程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3578BA25-1D0A-4EFF-AED2-714318A45DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56447990-1B5A-4102-B10D-923008C2E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="672" firstSheet="5" activeTab="8" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="672" firstSheet="6" activeTab="9" xr2:uid="{359E962F-6DC1-445B-99CF-5AAFC13105B5}"/>
   </bookViews>
   <sheets>
     <sheet name="广告分配方案" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="iPage(2797026)" sheetId="5" r:id="rId7"/>
     <sheet name="Wondershare(3194603)" sheetId="6" r:id="rId8"/>
     <sheet name="eBooks(904879)" sheetId="7" r:id="rId9"/>
-    <sheet name="Sugarhosts" sheetId="10" r:id="rId10"/>
+    <sheet name="Trip.com(Global)(13761944)" sheetId="11" r:id="rId10"/>
+    <sheet name="Sugarhosts" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Acronis(1596784)'!$A$1:$K$1</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="524">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2071,6 +2072,93 @@
   <si>
     <t>&lt;a href="https://www.jdoqocy.com/click-100678624-10779520" target="_blank"&gt;
 &lt;img src="https://www.awltovhc.com/image-100678624-10779520" width="300" height="250" alt="eBooks.com Fiction Bestsellers" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>广告商</t>
+  </si>
+  <si>
+    <t>广告ID</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>图像</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>目标网址</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>Trip.com(Global)(13761944)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120x600</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-13340901" target="_blank"&gt;
+&lt;img src="https://www.lduhtrp.net/image-100678624-13340901" width="120" height="600" alt="" border="0"/&gt;&lt;/a&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://r.bttn.io/?btn_url={ifnull(url(deepLinkUrl),'https%3A%2F%2Fuk.trip.com%2F%3Flocale%3Den_gb')}&amp;btn_ref=org-6658d51db36e0f38&amp;btn_reach_pub={pid}&amp;btn_reach_pub_name={url(pubName)}&amp;btn_mobile_url={ifnull(url(deepLinkUrl),'https%3A%2F%2Fuk.trip.com%2F%3Flocale%3Den_gb')}&amp;btn_network_ref={eventId}&amp;btn_cj_sid={url(sid)}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Trip.com Australia Homepage (文字链接)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-13761944" target="_blank"&gt;Trip.com Australia Homepage&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-13761944" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jdoqocy.com/click-100678624-14089216" target="_blank"&gt;Get flexible booking guarantee! With free cancellation for hotel orders / free change for all flight orders!&lt;/a&gt;&lt;img src="https://www.lduhtrp.net/image-100678624-14089216" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trip.com KR Homepage (文字链接)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popular Hotel in HongKong (HK) (文字链接)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kqzyfj.com/click-100678624-12217885" target="_blank"&gt;Hello world! save on travel with Trip.com&lt;/a&gt;&lt;img src="https://www.ftjcfx.com/image-100678624-12217885" width="1" height="1" border="0"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hongkong Hotel 50% OFF (Singapore Website)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.dpbolvw.net/click-100678624-12822628" target="_blank"&gt;
+&lt;img src="https://www.ftjcfx.com/image-100678624-12822628" width="160" height="600" alt="Hongkong Hotel 50% OFF(SG)" border="0"/&gt;&lt;/a&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2317,7 +2405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2509,6 +2597,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5775,6 +5866,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE05F9C3-F6C7-36E3-1658-1E777C47D166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="180975"/>
+          <a:ext cx="276225" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1643062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8A9057-B0D6-C6BB-D6AA-0548B66E3379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="4676775"/>
+          <a:ext cx="438150" cy="1643062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -6602,6 +6786,220 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F884E-6BA1-4FF4-92C1-553A6A9E8016}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.75" customWidth="1"/>
+    <col min="10" max="10" width="44.5" customWidth="1"/>
+    <col min="11" max="11" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1" t="s">
+        <v>508</v>
+      </c>
+      <c r="K1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2">
+        <v>13340901</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C3">
+        <v>13761944</v>
+      </c>
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H3" t="s">
+        <v>516</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4">
+        <v>14089216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G4" t="s">
+        <v>515</v>
+      </c>
+      <c r="H4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5">
+        <v>12217885</v>
+      </c>
+      <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H5" t="s">
+        <v>520</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C6">
+        <v>12822628</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>160</v>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6" t="s">
+        <v>522</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A593217-788A-40DE-8F89-5D4448ED0A20}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -10889,8 +11287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A783B-D3CA-4346-BC54-B7FE04CCE598}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
